--- a/Doc/estimation_felixil.xlsx
+++ b/Doc/estimation_felixil.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -153,6 +153,9 @@
   </si>
   <si>
     <t>5h</t>
+  </si>
+  <si>
+    <t>Temps (h)</t>
   </si>
 </sst>
 </file>
@@ -296,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -333,6 +336,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1602,10 +1608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A6:C36"/>
+  <dimension ref="A6:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C3" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1613,40 +1619,43 @@
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="41.21875" customWidth="1"/>
+    <col min="7" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" ht="5.55" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:7" ht="5.55" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>4</v>
       </c>
@@ -1656,8 +1665,17 @@
       <c r="C15" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E15" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="10">
         <v>1</v>
       </c>
@@ -1667,8 +1685,17 @@
       <c r="C16" s="3">
         <v>20</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E16" s="18">
+        <v>43127</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G16" s="3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="10">
         <v>2</v>
       </c>
@@ -1678,8 +1705,13 @@
       <c r="C17" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E17" s="18">
+        <v>43128</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
         <v>3</v>
       </c>
@@ -1689,8 +1721,13 @@
       <c r="C18" s="3">
         <v>25</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E18" s="18">
+        <v>43129</v>
+      </c>
+      <c r="F18" s="4"/>
+      <c r="G18" s="3"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
         <v>4</v>
       </c>
@@ -1700,8 +1737,13 @@
       <c r="C19" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E19" s="18">
+        <v>43130</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="3"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
         <v>5</v>
       </c>
@@ -1711,30 +1753,49 @@
       <c r="C20" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="18" t="s">
+      <c r="E20" s="18">
+        <v>43131</v>
+      </c>
+      <c r="F20" s="4"/>
+      <c r="G20" s="3"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B21" s="19"/>
+      <c r="B21" s="20"/>
       <c r="C21" s="11">
         <f>SUM(C16:C20)</f>
         <v>70</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E21" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="11">
+        <f>SUM(G16:G20)</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:3" ht="5.55" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
+    </row>
+    <row r="24" spans="1:7" ht="5.55" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G24" s="1"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="8" t="s">
         <v>4</v>
       </c>
@@ -1744,19 +1805,31 @@
       <c r="C25" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E25" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="G25" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="10">
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E26" s="10"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="3"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2</v>
       </c>
@@ -1766,8 +1839,11 @@
       <c r="C27" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E27" s="10"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="3"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>3</v>
       </c>
@@ -1777,8 +1853,11 @@
       <c r="C28" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E28" s="10"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="3"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
@@ -1788,59 +1867,86 @@
       <c r="C29" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E29" s="10"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="3"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="10">
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C30" s="3" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E30" s="10"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="3"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="10">
         <v>6</v>
       </c>
-      <c r="B31" s="4"/>
       <c r="C31" s="3"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E31" s="10"/>
+      <c r="G31" s="3"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="10">
         <v>7</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="3"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E32" s="10"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="3"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="10">
         <v>8</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="3"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="18" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="3"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B34" s="19"/>
+      <c r="B34" s="20"/>
       <c r="C34" s="11">
         <f>SUM(C26:C33)</f>
         <v>40</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="E34" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" s="20"/>
+      <c r="G34" s="11">
+        <f>SUM(G26:G33)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B36" s="5" t="str">
         <f>IF(C21+C34&lt;90,"Il manque "&amp;90-(C21+C34)&amp;"h",IF(C21+C34&gt;90,"Il y a "&amp;(C21+C34)-90&amp;"h de trop",""))</f>
         <v>Il y a 20h de trop</v>
       </c>
+      <c r="F36" s="5" t="str">
+        <f>IF(G21+G34&lt;90,"Il manque "&amp;90-(G21+G34)&amp;"h",IF(G21+G34&gt;90,"Il y a "&amp;(G21+G34)-90&amp;"h de trop",""))</f>
+        <v>Il manque 82h</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A21:B21"/>
     <mergeCell ref="A34:B34"/>
+    <mergeCell ref="E21:F21"/>
+    <mergeCell ref="E34:F34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2025,10 +2131,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2053,22 +2159,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2260,10 +2366,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2288,22 +2394,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2493,10 +2599,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2521,22 +2627,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -2726,10 +2832,10 @@
       <c r="C36" s="15"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="18" t="s">
+      <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="B37" s="19"/>
+      <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
         <v>0</v>
@@ -2754,22 +2860,22 @@
       <c r="A42" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="B42" s="20"/>
+      <c r="B42" s="21"/>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B43" s="21"/>
+      <c r="B43" s="22"/>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B44" s="21"/>
+      <c r="B44" s="22"/>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B45" s="21"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B46" s="21"/>
+      <c r="B46" s="22"/>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B47" s="22"/>
+      <c r="B47" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Doc/estimation_felixil.xlsx
+++ b/Doc/estimation_felixil.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -156,6 +156,12 @@
   </si>
   <si>
     <t>Temps (h)</t>
+  </si>
+  <si>
+    <t>continuer squellete(3h)popup login(2h)tutoriel Sprite(3h)recherche img(3h)</t>
+  </si>
+  <si>
+    <t>séparé img sprite (2h)</t>
   </si>
 </sst>
 </file>
@@ -1610,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C3" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C14" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1619,7 +1625,7 @@
     <col min="1" max="1" width="3.44140625" customWidth="1"/>
     <col min="2" max="2" width="64.5546875" customWidth="1"/>
     <col min="3" max="3" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="41.21875" customWidth="1"/>
+    <col min="6" max="6" width="58.77734375" customWidth="1"/>
     <col min="7" max="8" width="22.6640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1708,8 +1714,12 @@
       <c r="E17" s="18">
         <v>43128</v>
       </c>
-      <c r="F17" s="4"/>
-      <c r="G17" s="3"/>
+      <c r="F17" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="G17" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="10">
@@ -1724,8 +1734,12 @@
       <c r="E18" s="18">
         <v>43129</v>
       </c>
-      <c r="F18" s="4"/>
-      <c r="G18" s="3"/>
+      <c r="F18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="10">
@@ -1774,7 +1788,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="11">
         <f>SUM(G16:G20)</f>
-        <v>8</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1938,7 +1952,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>IF(G21+G34&lt;90,"Il manque "&amp;90-(G21+G34)&amp;"h",IF(G21+G34&gt;90,"Il y a "&amp;(G21+G34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 82h</v>
+        <v>Il manque 69h</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/estimation_felixil.xlsx
+++ b/Doc/estimation_felixil.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -162,6 +162,9 @@
   </si>
   <si>
     <t>séparé img sprite (2h)</t>
+  </si>
+  <si>
+    <t>choisir background choisir les arts en general(gratuit et legal)</t>
   </si>
 </sst>
 </file>
@@ -1616,8 +1619,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="C14" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="G25" sqref="G25"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1692,7 +1695,7 @@
         <v>20</v>
       </c>
       <c r="E16" s="18">
-        <v>43127</v>
+        <v>43156</v>
       </c>
       <c r="F16" s="4" t="s">
         <v>33</v>
@@ -1712,7 +1715,7 @@
         <v>10</v>
       </c>
       <c r="E17" s="18">
-        <v>43128</v>
+        <v>43157</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>46</v>
@@ -1732,7 +1735,7 @@
         <v>25</v>
       </c>
       <c r="E18" s="18">
-        <v>43129</v>
+        <v>43158</v>
       </c>
       <c r="F18" s="4" t="s">
         <v>47</v>
@@ -1752,10 +1755,14 @@
         <v>10</v>
       </c>
       <c r="E19" s="18">
-        <v>43130</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="3"/>
+        <v>43160</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="G19" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="10">
@@ -1768,10 +1775,14 @@
         <v>5</v>
       </c>
       <c r="E20" s="18">
-        <v>43131</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="3"/>
+        <v>43161</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G20" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="19" t="s">
@@ -1788,7 +1799,7 @@
       <c r="F21" s="20"/>
       <c r="G21" s="11">
         <f>SUM(G16:G20)</f>
-        <v>21</v>
+        <v>27</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
@@ -1952,7 +1963,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>IF(G21+G34&lt;90,"Il manque "&amp;90-(G21+G34)&amp;"h",IF(G21+G34&gt;90,"Il y a "&amp;(G21+G34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 69h</v>
+        <v>Il manque 63h</v>
       </c>
     </row>
   </sheetData>

--- a/Doc/estimation_felixil.xlsx
+++ b/Doc/estimation_felixil.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5772" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Estimation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="53">
   <si>
     <t>Définition du noyau (section qui doit obligatoirement être terminée pour réussir le cours : 60%)</t>
   </si>
@@ -95,9 +95,6 @@
     <t>Semaine 15</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Le projet doit être décomposé en plusieurs sections indépendantes qui doivent être priorisées et estimées</t>
   </si>
   <si>
@@ -165,6 +162,21 @@
   </si>
   <si>
     <t>choisir background choisir les arts en general(gratuit et legal)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BD tuto </t>
+  </si>
+  <si>
+    <t>sqlite</t>
+  </si>
+  <si>
+    <t>BD tuto + debut implentation</t>
+  </si>
+  <si>
+    <t>tres condensé, Je me suis lancé dans des mauvaises voies car je savais pas comment la création de jeux (sprite, animation ect)</t>
+  </si>
+  <si>
+    <t>BD</t>
   </si>
 </sst>
 </file>
@@ -308,7 +320,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -362,6 +374,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1619,8 +1640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="D10" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView view="pageLayout" topLeftCell="D8" zoomScale="85" zoomScaleNormal="100" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26:G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1634,7 +1655,7 @@
   <sheetData>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1649,12 +1670,12 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
@@ -1681,7 +1702,7 @@
         <v>2</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
@@ -1689,7 +1710,7 @@
         <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3">
         <v>20</v>
@@ -1698,7 +1719,7 @@
         <v>43156</v>
       </c>
       <c r="F16" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G16" s="3">
         <v>8</v>
@@ -1709,7 +1730,7 @@
         <v>2</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C17" s="3">
         <v>10</v>
@@ -1718,7 +1739,7 @@
         <v>43157</v>
       </c>
       <c r="F17" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G17" s="3">
         <v>11</v>
@@ -1729,7 +1750,7 @@
         <v>3</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3">
         <v>25</v>
@@ -1738,7 +1759,7 @@
         <v>43158</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G18" s="3">
         <v>2</v>
@@ -1749,7 +1770,7 @@
         <v>4</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C19" s="3">
         <v>10</v>
@@ -1758,7 +1779,7 @@
         <v>43160</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G19" s="3">
         <v>2</v>
@@ -1769,7 +1790,7 @@
         <v>5</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C20" s="3">
         <v>5</v>
@@ -1778,7 +1799,7 @@
         <v>43161</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="G20" s="3">
         <v>4</v>
@@ -1837,7 +1858,7 @@
         <v>2</v>
       </c>
       <c r="G25" s="8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -1845,49 +1866,67 @@
         <v>1</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="4"/>
-      <c r="G26" s="3"/>
+        <v>37</v>
+      </c>
+      <c r="E26" s="18">
+        <v>43199</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="G26" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="10">
         <v>2</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C27" s="3">
         <v>10</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="3"/>
+      <c r="E27" s="18">
+        <v>43201</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="G27" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="10">
         <v>3</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C28" s="3">
         <v>15</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="4"/>
-      <c r="G28" s="3"/>
+      <c r="E28" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G28" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="10">
         <v>4</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="3">
         <v>15</v>
@@ -1901,10 +1940,10 @@
         <v>5</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="4"/>
@@ -1953,7 +1992,7 @@
       <c r="F34" s="20"/>
       <c r="G34" s="11">
         <f>SUM(G26:G33)</f>
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
@@ -1963,7 +2002,7 @@
       </c>
       <c r="F36" s="5" t="str">
         <f>IF(G21+G34&lt;90,"Il manque "&amp;90-(G21+G34)&amp;"h",IF(G21+G34&gt;90,"Il y a "&amp;(G21+G34)-90&amp;"h de trop",""))</f>
-        <v>Il manque 63h</v>
+        <v>Il manque 56h</v>
       </c>
     </row>
   </sheetData>
@@ -1983,7 +2022,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A38" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
@@ -2041,29 +2080,59 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="18">
+        <v>43156</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C14" s="3">
+        <v>8</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43157</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="3">
+        <v>11</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43158</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="18">
+        <v>43160</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43161</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="4"/>
@@ -2162,29 +2231,33 @@
       <c r="B37" s="20"/>
       <c r="C37" s="16">
         <f>SUM(C14:C36)</f>
-        <v>0</v>
+        <v>27</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="B40" s="4"/>
+        <v>28</v>
+      </c>
+      <c r="B40" s="4">
+        <v>7</v>
+      </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="7"/>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B42" s="21"/>
+        <v>29</v>
+      </c>
+      <c r="B42" s="21" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B43" s="22"/>
@@ -2216,8 +2289,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A6:C47"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A35" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2274,141 +2347,169 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="4"/>
-      <c r="C14" s="15"/>
+      <c r="A14" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="4"/>
-      <c r="B15" s="4"/>
-      <c r="C15" s="15"/>
+      <c r="A15" s="18">
+        <v>43199</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="C15" s="3">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="15"/>
+      <c r="A16" s="18">
+        <v>43201</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="15"/>
+      <c r="A17" s="24">
+        <v>43203</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="25">
+        <v>3</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="4"/>
-      <c r="B18" s="4"/>
-      <c r="C18" s="15"/>
+      <c r="A18" s="18">
+        <v>43206</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C18" s="25">
+        <v>8</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="4"/>
+      <c r="A19" s="25"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="15"/>
+      <c r="C19" s="25"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="4"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="15"/>
+      <c r="C20" s="25"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="4"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="15"/>
+      <c r="C21" s="25"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="4"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="15"/>
+      <c r="C22" s="25"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="4"/>
+      <c r="A23" s="25"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="15"/>
+      <c r="C23" s="25"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="4"/>
+      <c r="A24" s="25"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="15"/>
+      <c r="C24" s="25"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="4"/>
+      <c r="A25" s="25"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="15"/>
+      <c r="C25" s="25"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="4"/>
+      <c r="A26" s="25"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="15"/>
+      <c r="C26" s="25"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="4"/>
+      <c r="A27" s="25"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="15"/>
+      <c r="C27" s="25"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="4"/>
+      <c r="A28" s="25"/>
       <c r="B28" s="4"/>
-      <c r="C28" s="15"/>
+      <c r="C28" s="25"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="4"/>
+      <c r="A29" s="25"/>
       <c r="B29" s="4"/>
-      <c r="C29" s="15"/>
+      <c r="C29" s="25"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="4"/>
+      <c r="A30" s="25"/>
       <c r="B30" s="4"/>
-      <c r="C30" s="15"/>
+      <c r="C30" s="25"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="15"/>
+      <c r="C31" s="25"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="15"/>
+      <c r="C32" s="25"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="15"/>
+      <c r="C33" s="25"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="15"/>
+      <c r="C34" s="25"/>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="15"/>
+      <c r="C35" s="25"/>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="15"/>
+      <c r="C36" s="25"/>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="19" t="s">
         <v>7</v>
       </c>
       <c r="B37" s="20"/>
-      <c r="C37" s="16">
-        <f>SUM(C14:C36)</f>
-        <v>0</v>
+      <c r="C37" s="26">
+        <f>SUM(C15:C36)</f>
+        <v>17</v>
       </c>
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2417,7 +2518,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2635,13 +2736,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2650,7 +2751,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>
@@ -2721,7 +2822,7 @@
         <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
@@ -2868,13 +2969,13 @@
     </row>
     <row r="39" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C39" s="17"/>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B40" s="4"/>
     </row>
@@ -2883,7 +2984,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B42" s="21"/>
     </row>
